--- a/src/main/java/com/crm/qa/testData/CRM_TestData.xlsx
+++ b/src/main/java/com/crm/qa/testData/CRM_TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AcVyawahare\eclipse-workspace\MavenProject2\src\main\java\com\crm\qa\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AcVyawahare\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7CF07-086A-462B-86CD-1A5AE2DAD72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F85DAA-2CDC-493A-9868-16B41C67CF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7EE27BD8-BEC2-4B63-9EA0-C86A26D7DF78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7EE27BD8-BEC2-4B63-9EA0-C86A26D7DF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -45,6 +46,15 @@
   </si>
   <si>
     <t>Amruta1991</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Test3</t>
   </si>
 </sst>
 </file>
@@ -432,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EDCAAE-14E5-478F-B009-10F325949D10}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,4 +474,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4FA1A2-984E-4CE5-8181-3A78B5A3B1CA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>